--- a/CB/可转债中签率.xlsx
+++ b/CB/可转债中签率.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="19815" windowHeight="7800"/>
+    <workbookView windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -59,59 +59,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -125,6 +87,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <i/>
       <sz val="11"/>
       <color rgb="FF7F7F7F"/>
@@ -133,8 +132,23 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -149,6 +163,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -179,28 +201,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,187 +217,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -427,6 +427,21 @@
     </border>
     <border>
       <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -441,17 +456,20 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -467,9 +485,11 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -503,26 +523,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -531,10 +531,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,133 +543,133 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="19" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="19" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="21" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1014,10 +1014,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H16"/>
+  <dimension ref="B2:H19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
@@ -1152,7 +1152,7 @@
         <v>202008</v>
       </c>
       <c r="C10" s="4">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="D10" s="4">
         <v>0</v>
@@ -1162,24 +1162,69 @@
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4" t="s">
-        <v>4</v>
+      <c r="B11" s="4">
+        <v>202009</v>
       </c>
       <c r="C11" s="4">
-        <f>SUM(C3:C10)</f>
-        <v>105</v>
+        <v>8</v>
       </c>
       <c r="D11" s="4">
-        <f>SUM(D3:D10)</f>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="E11" s="5">
         <f>D11/C11</f>
+        <v>0.125</v>
+      </c>
+    </row>
+    <row r="12" spans="2:5">
+      <c r="B12" s="4">
+        <v>202010</v>
+      </c>
+      <c r="C12" s="4">
+        <v>15</v>
+      </c>
+      <c r="D12" s="4">
+        <v>1</v>
+      </c>
+      <c r="E12" s="5">
+        <f>D12/C12</f>
         <v>0.0666666666666667</v>
       </c>
     </row>
-    <row r="16" spans="8:8">
-      <c r="H16" s="6"/>
+    <row r="13" spans="2:5">
+      <c r="B13" s="4">
+        <v>202011</v>
+      </c>
+      <c r="C13" s="4">
+        <v>9</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0</v>
+      </c>
+      <c r="E13" s="5">
+        <f>D13/C13</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <f>SUM(C3:C13)</f>
+        <v>147</v>
+      </c>
+      <c r="D14" s="4">
+        <f>SUM(D3:D13)</f>
+        <v>9</v>
+      </c>
+      <c r="E14" s="5">
+        <f>D14/C14</f>
+        <v>0.0612244897959184</v>
+      </c>
+    </row>
+    <row r="19" spans="8:8">
+      <c r="H19" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CB/可转债中签率.xlsx
+++ b/CB/可转债中签率.xlsx
@@ -7,14 +7,16 @@
     <workbookView windowWidth="20490" windowHeight="7800"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="2020年可转债打新情况" sheetId="1" r:id="rId1"/>
+    <sheet name="2020新债盈利情况" sheetId="2" r:id="rId2"/>
+    <sheet name="2020年可转债投资情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
   <si>
     <t>月份</t>
   </si>
@@ -29,21 +31,232 @@
   </si>
   <si>
     <t>合计</t>
+  </si>
+  <si>
+    <t>中签日期</t>
+  </si>
+  <si>
+    <t>新债名称</t>
+  </si>
+  <si>
+    <t>卖出均价</t>
+  </si>
+  <si>
+    <t>盈利</t>
+  </si>
+  <si>
+    <t>收益率</t>
+  </si>
+  <si>
+    <t>恩捷发债</t>
+  </si>
+  <si>
+    <t>盛屯发债</t>
+  </si>
+  <si>
+    <t>华安发债</t>
+  </si>
+  <si>
+    <t>滨化发债</t>
+  </si>
+  <si>
+    <t>润达转债</t>
+  </si>
+  <si>
+    <t>紫银转债</t>
+  </si>
+  <si>
+    <t>国投转债</t>
+  </si>
+  <si>
+    <t>交建发债</t>
+  </si>
+  <si>
+    <t>南航转债</t>
+  </si>
+  <si>
+    <t>飞凯发债</t>
+  </si>
+  <si>
+    <t>靖远发债</t>
+  </si>
+  <si>
+    <t>未上市</t>
+  </si>
+  <si>
+    <t>大秦转债</t>
+  </si>
+  <si>
+    <t>总计</t>
+  </si>
+  <si>
+    <t>转债代码</t>
+  </si>
+  <si>
+    <t>转债名称</t>
+  </si>
+  <si>
+    <t>行业</t>
+  </si>
+  <si>
+    <t>子行业</t>
+  </si>
+  <si>
+    <t>买入时间</t>
+  </si>
+  <si>
+    <t>买入价格</t>
+  </si>
+  <si>
+    <t>买入数量</t>
+  </si>
+  <si>
+    <t>成交总金额</t>
+  </si>
+  <si>
+    <t>1年内卖出收益</t>
+  </si>
+  <si>
+    <t>1年内卖出收益率</t>
+  </si>
+  <si>
+    <t>卖出时间</t>
+  </si>
+  <si>
+    <t>卖出价格</t>
+  </si>
+  <si>
+    <t>卖出数量</t>
+  </si>
+  <si>
+    <t>卖出总金额</t>
+  </si>
+  <si>
+    <t>收益</t>
+  </si>
+  <si>
+    <t>百川转债</t>
+  </si>
+  <si>
+    <t>化工</t>
+  </si>
+  <si>
+    <t>今飞转债</t>
+  </si>
+  <si>
+    <t>汽车</t>
+  </si>
+  <si>
+    <t>零部件制</t>
+  </si>
+  <si>
+    <t>钧达转债</t>
+  </si>
+  <si>
+    <t>金能转债</t>
+  </si>
+  <si>
+    <t>煤炭</t>
+  </si>
+  <si>
+    <t>炼焦</t>
+  </si>
+  <si>
+    <t>文灿转债</t>
+  </si>
+  <si>
+    <t>合兴转债</t>
+  </si>
+  <si>
+    <t>造纸包装</t>
+  </si>
+  <si>
+    <t>包装材料</t>
+  </si>
+  <si>
+    <t>哈尔转债</t>
+  </si>
+  <si>
+    <t>其他</t>
+  </si>
+  <si>
+    <t>家居用品</t>
+  </si>
+  <si>
+    <t>众信转债</t>
+  </si>
+  <si>
+    <t>旅游餐饮</t>
+  </si>
+  <si>
+    <t>旅游</t>
+  </si>
+  <si>
+    <t>永鼎转债</t>
+  </si>
+  <si>
+    <t>通信互联</t>
+  </si>
+  <si>
+    <t>通信设备</t>
+  </si>
+  <si>
+    <t>华锋转债</t>
+  </si>
+  <si>
+    <t>电子</t>
+  </si>
+  <si>
+    <t>元器件制</t>
+  </si>
+  <si>
+    <t>星帅转债</t>
+  </si>
+  <si>
+    <t>家电</t>
+  </si>
+  <si>
+    <t>总共盈利</t>
+  </si>
+  <si>
+    <t>总共投资</t>
+  </si>
+  <si>
+    <t>除新债收益</t>
+  </si>
+  <si>
+    <t>除新债收益率</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="4">
+  <numFmts count="5">
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -59,20 +272,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -80,15 +279,15 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
-      <sz val="11"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
@@ -96,29 +295,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -132,6 +309,14 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -141,14 +326,22 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color rgb="FF9C0006"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -171,16 +364,44 @@
     </font>
     <font>
       <b/>
-      <sz val="13"/>
+      <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -193,14 +414,6 @@
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
   </fonts>
   <fills count="34">
     <fill>
@@ -217,13 +430,109 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -235,73 +544,61 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -313,91 +610,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -426,6 +639,45 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -437,6 +689,26 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -459,67 +731,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -531,10 +744,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -543,147 +756,186 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="30" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="30" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="33" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="10" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -691,9 +943,6 @@
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -1014,217 +1263,1275 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:H19"/>
+  <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="7"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
+    <col min="1" max="1" width="9.375"/>
     <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="14" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
     <col min="8" max="8" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="2" t="s">
+      <c r="D2" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="16" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="4">
+      <c r="B3" s="17">
         <v>202001</v>
       </c>
-      <c r="C3" s="4">
+      <c r="C3" s="17">
         <v>6</v>
       </c>
-      <c r="D3" s="4">
+      <c r="D3" s="17">
         <v>0</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="18">
         <f t="shared" ref="E3:E10" si="0">D3/C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="4">
+      <c r="B4" s="17">
         <v>202002</v>
       </c>
-      <c r="C4" s="4">
+      <c r="C4" s="17">
         <v>6</v>
       </c>
-      <c r="D4" s="4">
+      <c r="D4" s="17">
         <v>1</v>
       </c>
-      <c r="E4" s="5">
+      <c r="E4" s="18">
         <f t="shared" si="0"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="4">
+      <c r="B5" s="17">
         <v>202003</v>
       </c>
-      <c r="C5" s="4">
+      <c r="C5" s="17">
         <v>16</v>
       </c>
-      <c r="D5" s="4">
+      <c r="D5" s="17">
         <v>2</v>
       </c>
-      <c r="E5" s="5">
+      <c r="E5" s="18">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="4">
+      <c r="B6" s="17">
         <v>202004</v>
       </c>
-      <c r="C6" s="4">
+      <c r="C6" s="17">
         <v>17</v>
       </c>
-      <c r="D6" s="4">
+      <c r="D6" s="17">
         <v>1</v>
       </c>
-      <c r="E6" s="5">
+      <c r="E6" s="18">
         <f t="shared" si="0"/>
         <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="4">
+      <c r="B7" s="17">
         <v>202005</v>
       </c>
-      <c r="C7" s="4">
+      <c r="C7" s="17">
         <v>3</v>
       </c>
-      <c r="D7" s="4">
+      <c r="D7" s="17">
         <v>0</v>
       </c>
-      <c r="E7" s="5">
+      <c r="E7" s="18">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="4">
+      <c r="B8" s="17">
         <v>202006</v>
       </c>
-      <c r="C8" s="4">
+      <c r="C8" s="17">
         <v>23</v>
       </c>
-      <c r="D8" s="4">
+      <c r="D8" s="17">
         <v>1</v>
       </c>
-      <c r="E8" s="5">
+      <c r="E8" s="18">
         <f t="shared" si="0"/>
         <v>0.0434782608695652</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="4">
+      <c r="B9" s="17">
         <v>202007</v>
       </c>
-      <c r="C9" s="4">
+      <c r="C9" s="17">
         <v>31</v>
       </c>
-      <c r="D9" s="4">
+      <c r="D9" s="17">
         <v>2</v>
       </c>
-      <c r="E9" s="5">
+      <c r="E9" s="18">
         <f t="shared" si="0"/>
         <v>0.0645161290322581</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="4">
+      <c r="B10" s="17">
         <v>202008</v>
       </c>
-      <c r="C10" s="4">
+      <c r="C10" s="17">
         <v>13</v>
       </c>
-      <c r="D10" s="4">
+      <c r="D10" s="17">
         <v>0</v>
       </c>
-      <c r="E10" s="5">
+      <c r="E10" s="18">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="4">
+      <c r="B11" s="17">
         <v>202009</v>
       </c>
-      <c r="C11" s="4">
+      <c r="C11" s="17">
         <v>8</v>
       </c>
-      <c r="D11" s="4">
+      <c r="D11" s="17">
         <v>1</v>
       </c>
-      <c r="E11" s="5">
+      <c r="E11" s="18">
         <f>D11/C11</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="4">
+      <c r="B12" s="17">
         <v>202010</v>
       </c>
-      <c r="C12" s="4">
+      <c r="C12" s="17">
         <v>15</v>
       </c>
-      <c r="D12" s="4">
+      <c r="D12" s="17">
         <v>1</v>
       </c>
-      <c r="E12" s="5">
+      <c r="E12" s="18">
         <f>D12/C12</f>
         <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="13" spans="2:5">
+      <c r="B13" s="17">
+        <v>202011</v>
+      </c>
+      <c r="C13" s="17">
+        <v>14</v>
+      </c>
+      <c r="D13" s="17">
+        <v>1</v>
+      </c>
+      <c r="E13" s="18">
+        <f>D13/C13</f>
+        <v>0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="14" spans="2:5">
+      <c r="B14" s="17">
+        <v>202012</v>
+      </c>
+      <c r="C14" s="17">
+        <v>28</v>
+      </c>
+      <c r="D14" s="17">
+        <v>2</v>
+      </c>
+      <c r="E14" s="18">
+        <f>D14/C14</f>
+        <v>0.0714285714285714</v>
+      </c>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="17" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="17">
+        <f>SUM(C3:C14)</f>
+        <v>180</v>
+      </c>
+      <c r="D15" s="17">
+        <f>SUM(D3:D14)</f>
+        <v>12</v>
+      </c>
+      <c r="E15" s="18">
+        <f>D15/C15</f>
+        <v>0.0666666666666667</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:F15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="2" width="11" style="1" customWidth="1"/>
+    <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
+    <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
+    <col min="5" max="5" width="9" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6">
+      <c r="B2" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C2" s="11" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="E2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F2" s="11" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6">
+      <c r="B3" s="12">
+        <v>20200211</v>
+      </c>
+      <c r="C3" s="12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" s="12">
+        <v>131.01</v>
+      </c>
+      <c r="E3" s="12">
+        <f t="shared" ref="E3:E12" si="0">(D3-100)*10</f>
+        <v>310.1</v>
+      </c>
+      <c r="F3" s="13">
+        <f t="shared" ref="F3:F12" si="1">E3/1000</f>
+        <v>0.3101</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6">
+      <c r="B4" s="12">
+        <v>20200302</v>
+      </c>
+      <c r="C4" s="12" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="12">
+        <v>109.88</v>
+      </c>
+      <c r="E4" s="12">
+        <f t="shared" si="0"/>
+        <v>98.8</v>
+      </c>
+      <c r="F4" s="13">
+        <f t="shared" si="1"/>
+        <v>0.0988</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6">
+      <c r="B5" s="12">
+        <v>20200312</v>
+      </c>
+      <c r="C5" s="12" t="s">
+        <v>12</v>
+      </c>
+      <c r="D5" s="12">
+        <v>114.7</v>
+      </c>
+      <c r="E5" s="12">
+        <f t="shared" si="0"/>
+        <v>147</v>
+      </c>
+      <c r="F5" s="13">
+        <f t="shared" si="1"/>
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6">
+      <c r="B6" s="12">
+        <v>20200410</v>
+      </c>
+      <c r="C6" s="12" t="s">
+        <v>13</v>
+      </c>
+      <c r="D6" s="12">
+        <v>110.8</v>
+      </c>
+      <c r="E6" s="12">
+        <f t="shared" si="0"/>
+        <v>108</v>
+      </c>
+      <c r="F6" s="13">
+        <f t="shared" si="1"/>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6">
+      <c r="B7" s="12">
+        <v>20200617</v>
+      </c>
+      <c r="C7" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="D7" s="12">
+        <v>130.26</v>
+      </c>
+      <c r="E7" s="12">
+        <f t="shared" si="0"/>
+        <v>302.6</v>
+      </c>
+      <c r="F7" s="13">
+        <f t="shared" si="1"/>
+        <v>0.3026</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6">
+      <c r="B8" s="12">
+        <v>20200723</v>
+      </c>
+      <c r="C8" s="12" t="s">
+        <v>15</v>
+      </c>
+      <c r="D8" s="12">
+        <v>110.31</v>
+      </c>
+      <c r="E8" s="12">
+        <f t="shared" si="0"/>
+        <v>103.1</v>
+      </c>
+      <c r="F8" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6">
+      <c r="B9" s="12">
+        <v>20200724</v>
+      </c>
+      <c r="C9" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="D9" s="12">
+        <v>116.02</v>
+      </c>
+      <c r="E9" s="12">
+        <f t="shared" si="0"/>
+        <v>160.2</v>
+      </c>
+      <c r="F9" s="13">
+        <f t="shared" si="1"/>
+        <v>0.1602</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6">
+      <c r="B10" s="12">
+        <v>20200915</v>
+      </c>
+      <c r="C10" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="D10" s="12">
+        <v>101.5</v>
+      </c>
+      <c r="E10" s="12">
+        <f t="shared" si="0"/>
+        <v>15</v>
+      </c>
+      <c r="F10" s="13">
+        <f t="shared" si="1"/>
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6">
+      <c r="B11" s="12">
+        <v>20201015</v>
+      </c>
+      <c r="C11" s="12" t="s">
+        <v>18</v>
+      </c>
+      <c r="D11" s="12">
+        <v>112</v>
+      </c>
+      <c r="E11" s="12">
+        <f t="shared" si="0"/>
+        <v>120</v>
+      </c>
+      <c r="F11" s="13">
+        <f t="shared" si="1"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6">
+      <c r="B12" s="12">
+        <v>20201127</v>
+      </c>
+      <c r="C12" s="12" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="12">
+        <v>105</v>
+      </c>
+      <c r="E12" s="12">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="F12" s="13">
+        <f t="shared" si="1"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6">
+      <c r="B13" s="12">
+        <v>20201210</v>
+      </c>
+      <c r="C13" s="12" t="s">
+        <v>20</v>
+      </c>
+      <c r="D13" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="2:6">
+      <c r="B14" s="12">
+        <v>20201214</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="2:5">
+      <c r="B15" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E15" s="1">
+        <v>1414.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <headerFooter/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
+  <sheetPr/>
+  <dimension ref="B2:Q22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <cols>
+    <col min="1" max="1" width="9" style="1"/>
+    <col min="2" max="3" width="8.375" style="1" customWidth="1"/>
+    <col min="4" max="5" width="7.875" style="1" customWidth="1"/>
+    <col min="6" max="6" width="9.25" style="1" customWidth="1"/>
+    <col min="7" max="8" width="8.375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="10.125" style="1" customWidth="1"/>
+    <col min="10" max="10" width="13.25" style="1" customWidth="1"/>
+    <col min="11" max="11" width="15.125" style="1" customWidth="1"/>
+    <col min="12" max="14" width="8.375" style="1" customWidth="1"/>
+    <col min="15" max="15" width="10.125" style="1" customWidth="1"/>
+    <col min="16" max="16" width="7.5" style="1" customWidth="1"/>
+    <col min="17" max="17" width="6.625" style="1" customWidth="1"/>
+    <col min="18" max="16384" width="9" style="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:17">
+      <c r="B2" s="2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="K2" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q2" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="2:17">
+      <c r="B3" s="4">
+        <v>128093</v>
+      </c>
+      <c r="C3" s="5" t="s">
+        <v>39</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="F3" s="6">
+        <v>20200206</v>
+      </c>
+      <c r="G3" s="4">
+        <v>106.001</v>
+      </c>
+      <c r="H3" s="4">
+        <v>50</v>
+      </c>
+      <c r="I3" s="4">
+        <v>5300.05</v>
+      </c>
+      <c r="J3" s="4">
+        <v>1199.95</v>
+      </c>
+      <c r="K3" s="10">
+        <v>0.226403524495052</v>
+      </c>
+      <c r="L3" s="4">
+        <v>20200601</v>
+      </c>
+      <c r="M3" s="4">
+        <v>107.524</v>
+      </c>
+      <c r="N3" s="4">
+        <v>50</v>
+      </c>
+      <c r="O3" s="4">
+        <v>5376.28</v>
+      </c>
+      <c r="P3" s="4">
+        <v>76.2299999999996</v>
+      </c>
+      <c r="Q3" s="10">
+        <v>0.0143828831803473</v>
+      </c>
+    </row>
+    <row r="4" spans="2:17">
+      <c r="B4" s="4">
+        <v>128056</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E4" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F4" s="6">
+        <v>20200206</v>
+      </c>
+      <c r="G4" s="4">
+        <v>100.3</v>
+      </c>
+      <c r="H4" s="4">
+        <v>50</v>
+      </c>
+      <c r="I4" s="4">
+        <v>5015</v>
+      </c>
+      <c r="J4" s="4">
+        <v>1485</v>
+      </c>
+      <c r="K4" s="10">
+        <v>0.296111665004985</v>
+      </c>
+      <c r="L4" s="4">
+        <v>20200325</v>
+      </c>
+      <c r="M4" s="4">
+        <v>145.397</v>
+      </c>
+      <c r="N4" s="4">
+        <v>50</v>
+      </c>
+      <c r="O4" s="4">
+        <v>7269.85</v>
+      </c>
+      <c r="P4" s="4">
+        <v>2254.85</v>
+      </c>
+      <c r="Q4" s="10">
+        <v>0.449621136590229</v>
+      </c>
+    </row>
+    <row r="5" spans="2:17">
+      <c r="B5" s="4">
+        <v>128050</v>
+      </c>
+      <c r="C5" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F5" s="6">
+        <v>20200414</v>
+      </c>
+      <c r="G5" s="4">
+        <v>111.1</v>
+      </c>
+      <c r="H5" s="4">
+        <v>50</v>
+      </c>
+      <c r="I5" s="4">
+        <v>5555</v>
+      </c>
+      <c r="J5" s="4">
+        <v>945</v>
+      </c>
+      <c r="K5" s="10">
+        <v>0.17011701170117</v>
+      </c>
+      <c r="L5" s="4">
+        <v>20201022</v>
+      </c>
+      <c r="M5" s="4">
+        <v>130</v>
+      </c>
+      <c r="N5" s="4">
+        <v>50</v>
+      </c>
+      <c r="O5" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P5" s="4">
+        <v>945</v>
+      </c>
+      <c r="Q5" s="10">
+        <v>0.17011701170117</v>
+      </c>
+    </row>
+    <row r="6" spans="2:17">
+      <c r="B6" s="4">
+        <v>113545</v>
+      </c>
+      <c r="C6" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="D6" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E6" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F6" s="6">
+        <v>20200608</v>
+      </c>
+      <c r="G6" s="4">
+        <v>109.1</v>
+      </c>
+      <c r="H6" s="4">
+        <v>50</v>
+      </c>
+      <c r="I6" s="4">
+        <v>5455</v>
+      </c>
+      <c r="J6" s="4">
+        <v>1045</v>
+      </c>
+      <c r="K6" s="10">
+        <v>0.191567369385885</v>
+      </c>
+      <c r="L6" s="4">
+        <v>20200709</v>
+      </c>
+      <c r="M6" s="4">
+        <v>130.02</v>
+      </c>
+      <c r="N6" s="4">
+        <v>5</v>
+      </c>
+      <c r="O6" s="4">
+        <v>6501</v>
+      </c>
+      <c r="P6" s="4">
+        <v>1046</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>0.191750687442713</v>
+      </c>
+    </row>
+    <row r="7" spans="2:17">
+      <c r="B7" s="4">
+        <v>113537</v>
+      </c>
+      <c r="C7" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E7" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F7" s="6">
+        <v>20200616</v>
+      </c>
+      <c r="G7" s="4">
+        <v>112.72</v>
+      </c>
+      <c r="H7" s="4">
+        <v>50</v>
+      </c>
+      <c r="I7" s="4">
+        <v>5636</v>
+      </c>
+      <c r="J7" s="4">
+        <v>864</v>
+      </c>
+      <c r="K7" s="10">
+        <v>0.153300212916962</v>
+      </c>
+      <c r="L7" s="4">
+        <v>20200811</v>
+      </c>
+      <c r="M7" s="4">
+        <v>130</v>
+      </c>
+      <c r="N7" s="4">
+        <v>5</v>
+      </c>
+      <c r="O7" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P7" s="4">
+        <v>864</v>
+      </c>
+      <c r="Q7" s="10">
+        <v>0.153300212916962</v>
+      </c>
+    </row>
+    <row r="8" spans="2:17">
+      <c r="B8" s="4">
+        <v>128071</v>
+      </c>
+      <c r="C8" s="5" t="s">
+        <v>49</v>
+      </c>
+      <c r="D8" s="5" t="s">
+        <v>50</v>
+      </c>
+      <c r="E8" s="5" t="s">
+        <v>51</v>
+      </c>
+      <c r="F8" s="6">
+        <v>20200616</v>
+      </c>
+      <c r="G8" s="4">
+        <v>112.7</v>
+      </c>
+      <c r="H8" s="4">
+        <v>50</v>
+      </c>
+      <c r="I8" s="4">
+        <v>5635</v>
+      </c>
+      <c r="J8" s="4">
+        <v>865</v>
+      </c>
+      <c r="K8" s="10">
+        <v>0.153504880212955</v>
+      </c>
+      <c r="L8" s="4">
+        <v>20200903</v>
+      </c>
+      <c r="M8" s="4">
+        <v>132.45</v>
+      </c>
+      <c r="N8" s="4">
+        <v>50</v>
+      </c>
+      <c r="O8" s="4">
+        <v>6622.5</v>
+      </c>
+      <c r="P8" s="4">
+        <v>987.499999999999</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>0.175244010647737</v>
+      </c>
+    </row>
+    <row r="9" spans="2:17">
+      <c r="B9" s="4">
+        <v>128073</v>
+      </c>
+      <c r="C9" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D9" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E9" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F9" s="6">
+        <v>20200617</v>
+      </c>
+      <c r="G9" s="4">
+        <v>105.1</v>
+      </c>
+      <c r="H9" s="4">
+        <v>50</v>
+      </c>
+      <c r="I9" s="4">
+        <v>5255</v>
+      </c>
+      <c r="J9" s="4">
+        <v>1245</v>
+      </c>
+      <c r="K9" s="10">
+        <v>0.236917221693625</v>
+      </c>
+      <c r="L9" s="4">
+        <v>20200811</v>
+      </c>
+      <c r="M9" s="4">
+        <v>130</v>
+      </c>
+      <c r="N9" s="4">
+        <v>50</v>
+      </c>
+      <c r="O9" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P9" s="4">
+        <v>1245</v>
+      </c>
+      <c r="Q9" s="10">
+        <v>0.236917221693625</v>
+      </c>
+    </row>
+    <row r="10" spans="2:17">
+      <c r="B10" s="4">
+        <v>128022</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>55</v>
+      </c>
+      <c r="D10" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="E10" s="5" t="s">
+        <v>57</v>
+      </c>
+      <c r="F10" s="6">
+        <v>20200629</v>
+      </c>
+      <c r="G10" s="4">
+        <v>105.9</v>
+      </c>
+      <c r="H10" s="4">
+        <v>50</v>
+      </c>
+      <c r="I10" s="4">
+        <v>5295</v>
+      </c>
+      <c r="J10" s="4">
+        <v>1205</v>
+      </c>
+      <c r="K10" s="10">
+        <v>0.227573182247403</v>
+      </c>
+      <c r="L10" s="4">
+        <v>20200707</v>
+      </c>
+      <c r="M10" s="4">
+        <v>130.001</v>
+      </c>
+      <c r="N10" s="4">
+        <v>50</v>
+      </c>
+      <c r="O10" s="4">
+        <v>6500.05</v>
+      </c>
+      <c r="P10" s="4">
+        <v>1205.05</v>
+      </c>
+      <c r="Q10" s="10">
+        <v>0.227582625118036</v>
+      </c>
+    </row>
+    <row r="11" spans="2:17">
+      <c r="B11" s="4">
+        <v>110058</v>
+      </c>
+      <c r="C11" s="5" t="s">
+        <v>58</v>
+      </c>
+      <c r="D11" s="5" t="s">
+        <v>59</v>
+      </c>
+      <c r="E11" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="F11" s="6">
+        <v>20200713</v>
+      </c>
+      <c r="G11" s="4">
+        <v>108.08</v>
+      </c>
+      <c r="H11" s="4">
+        <v>50</v>
+      </c>
+      <c r="I11" s="4">
+        <v>5404</v>
+      </c>
+      <c r="J11" s="4">
+        <v>1096</v>
+      </c>
+      <c r="K11" s="10">
+        <v>0.202812731310141</v>
+      </c>
+      <c r="L11" s="4">
+        <v>20201020</v>
+      </c>
+      <c r="M11" s="4">
+        <v>130</v>
+      </c>
+      <c r="N11" s="4">
+        <v>50</v>
+      </c>
+      <c r="O11" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P11" s="4">
+        <v>1096</v>
+      </c>
+      <c r="Q11" s="10">
+        <v>0.202812731310141</v>
+      </c>
+    </row>
+    <row r="12" spans="2:17">
+      <c r="B12" s="4">
+        <v>128056</v>
+      </c>
+      <c r="C12" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>42</v>
+      </c>
+      <c r="E12" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F12" s="6">
+        <v>20200803</v>
+      </c>
+      <c r="G12" s="4">
+        <v>107.666</v>
+      </c>
+      <c r="H12" s="4">
+        <v>50</v>
+      </c>
+      <c r="I12" s="4">
+        <v>5383.3</v>
+      </c>
+      <c r="J12" s="4">
+        <v>1116.7</v>
+      </c>
+      <c r="K12" s="10">
+        <v>0.207437816952427</v>
+      </c>
+      <c r="L12" s="4">
+        <v>20201022</v>
+      </c>
+      <c r="M12" s="4">
+        <v>130</v>
+      </c>
+      <c r="N12" s="4">
+        <v>50</v>
+      </c>
+      <c r="O12" s="4">
+        <v>6500</v>
+      </c>
+      <c r="P12" s="4">
+        <v>1116.7</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>0.202812731310141</v>
+      </c>
+    </row>
+    <row r="13" spans="2:17">
       <c r="B13" s="4">
-        <v>202011</v>
-      </c>
-      <c r="C13" s="4">
+        <v>128073</v>
+      </c>
+      <c r="C13" s="5" t="s">
+        <v>52</v>
+      </c>
+      <c r="D13" s="5" t="s">
+        <v>53</v>
+      </c>
+      <c r="E13" s="5" t="s">
+        <v>54</v>
+      </c>
+      <c r="F13" s="6">
+        <v>20200928</v>
+      </c>
+      <c r="G13" s="4">
+        <v>110.997</v>
+      </c>
+      <c r="H13" s="4">
+        <v>50</v>
+      </c>
+      <c r="I13" s="4">
+        <v>5549.85</v>
+      </c>
+      <c r="J13" s="4">
+        <v>950.15</v>
+      </c>
+      <c r="K13" s="10">
+        <v>0.171202825301585</v>
+      </c>
+      <c r="L13" s="4">
+        <v>20201021</v>
+      </c>
+      <c r="M13" s="4">
+        <v>135</v>
+      </c>
+      <c r="N13" s="4">
+        <v>50</v>
+      </c>
+      <c r="O13" s="4">
+        <v>6750</v>
+      </c>
+      <c r="P13" s="4">
+        <v>1200.15</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>0.216249087813184</v>
+      </c>
+    </row>
+    <row r="14" spans="2:17">
+      <c r="B14" s="4">
+        <v>128082</v>
+      </c>
+      <c r="C14" s="5" t="s">
+        <v>61</v>
+      </c>
+      <c r="D14" s="5" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="5" t="s">
+        <v>63</v>
+      </c>
+      <c r="F14" s="6">
+        <v>20201026</v>
+      </c>
+      <c r="G14" s="4">
+        <v>113.259</v>
+      </c>
+      <c r="H14" s="4">
+        <v>50</v>
+      </c>
+      <c r="I14" s="4">
+        <v>5662.95</v>
+      </c>
+      <c r="J14" s="4">
+        <v>837.05</v>
+      </c>
+      <c r="K14" s="10">
+        <v>0.147811652937073</v>
+      </c>
+      <c r="L14" s="4">
+        <v>20201126</v>
+      </c>
+      <c r="M14" s="4">
+        <v>131</v>
+      </c>
+      <c r="N14" s="4">
+        <v>50</v>
+      </c>
+      <c r="O14" s="4">
+        <v>6550</v>
+      </c>
+      <c r="P14" s="4">
+        <v>887.05</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>0.156640973344282</v>
+      </c>
+    </row>
+    <row r="15" spans="2:17">
+      <c r="B15" s="4">
+        <v>128094</v>
+      </c>
+      <c r="C15" s="5" t="s">
+        <v>64</v>
+      </c>
+      <c r="D15" s="5" t="s">
+        <v>65</v>
+      </c>
+      <c r="E15" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="F15" s="6">
+        <v>20201026</v>
+      </c>
+      <c r="G15" s="4">
+        <v>114.81</v>
+      </c>
+      <c r="H15" s="4">
+        <v>50</v>
+      </c>
+      <c r="I15" s="4">
+        <v>5470.5</v>
+      </c>
+      <c r="J15" s="4">
+        <v>759.5</v>
+      </c>
+      <c r="K15" s="10">
+        <v>0.138835572616763</v>
+      </c>
+      <c r="L15" s="4">
+        <v>20201027</v>
+      </c>
+      <c r="M15" s="4">
+        <v>130.417</v>
+      </c>
+      <c r="N15" s="4">
+        <v>50</v>
+      </c>
+      <c r="O15" s="4">
+        <v>6520.85</v>
+      </c>
+      <c r="P15" s="4">
+        <v>1050.35</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>0.192002559181062</v>
+      </c>
+    </row>
+    <row r="18" spans="5:7">
+      <c r="E18" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="F18" s="7">
+        <f>13973+1414.8</f>
+        <v>15387.8</v>
+      </c>
+      <c r="G18" s="8"/>
+    </row>
+    <row r="19" spans="5:8">
+      <c r="E19" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" s="7">
+        <v>142319</v>
+      </c>
+      <c r="H19" s="8"/>
+    </row>
+    <row r="20" spans="5:6">
+      <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="D13" s="4">
-        <v>0</v>
-      </c>
-      <c r="E13" s="5">
-        <f>D13/C13</f>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5">
-      <c r="B14" s="4" t="s">
-        <v>4</v>
-      </c>
-      <c r="C14" s="4">
-        <f>SUM(C3:C13)</f>
-        <v>147</v>
-      </c>
-      <c r="D14" s="4">
-        <f>SUM(D3:D13)</f>
-        <v>9</v>
-      </c>
-      <c r="E14" s="5">
-        <f>D14/C14</f>
-        <v>0.0612244897959184</v>
-      </c>
-    </row>
-    <row r="19" spans="8:8">
-      <c r="H19" s="6"/>
+      <c r="F20" s="8">
+        <f>F18/F19</f>
+        <v>0.10812189517914</v>
+      </c>
+    </row>
+    <row r="21" spans="5:6">
+      <c r="E21" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="F21" s="1">
+        <f>F18-1414</f>
+        <v>13973.8</v>
+      </c>
+    </row>
+    <row r="22" spans="5:6">
+      <c r="E22" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F22" s="8">
+        <f>F21/F19</f>
+        <v>0.0981864684265629</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/CB/可转债中签率.xlsx
+++ b/CB/可转债中签率.xlsx
@@ -4,11 +4,11 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20490" windowHeight="7800"/>
+    <workbookView windowWidth="20490" windowHeight="7800" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2020年可转债打新情况" sheetId="1" r:id="rId1"/>
-    <sheet name="2020新债盈利情况" sheetId="2" r:id="rId2"/>
+    <sheet name="可转债打新情况" sheetId="1" r:id="rId1"/>
+    <sheet name="新债盈利情况" sheetId="2" r:id="rId2"/>
     <sheet name="2020年可转债投资情况" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="144525"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="70">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="84">
   <si>
     <t>月份</t>
   </si>
@@ -48,6 +48,33 @@
     <t>收益率</t>
   </si>
   <si>
+    <t>海亮转债</t>
+  </si>
+  <si>
+    <t>山鹰发债</t>
+  </si>
+  <si>
+    <t>国轩发债</t>
+  </si>
+  <si>
+    <t>振德发债</t>
+  </si>
+  <si>
+    <t>建工发债</t>
+  </si>
+  <si>
+    <t>至纯发债</t>
+  </si>
+  <si>
+    <t>永创发债</t>
+  </si>
+  <si>
+    <t>麦米发债</t>
+  </si>
+  <si>
+    <t>唐人发债</t>
+  </si>
+  <si>
     <t>恩捷发债</t>
   </si>
   <si>
@@ -81,10 +108,25 @@
     <t>靖远发债</t>
   </si>
   <si>
-    <t>未上市</t>
-  </si>
-  <si>
     <t>大秦转债</t>
+  </si>
+  <si>
+    <t>思创发债</t>
+  </si>
+  <si>
+    <t>东财发债</t>
+  </si>
+  <si>
+    <t>凤21转债</t>
+  </si>
+  <si>
+    <t>银轮发债</t>
+  </si>
+  <si>
+    <t>国微发债</t>
+  </si>
+  <si>
+    <t>闻泰转债</t>
   </si>
   <si>
     <t>总计</t>
@@ -233,10 +275,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="23">
@@ -272,7 +314,58 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -280,22 +373,23 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFF0000"/>
+      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -309,39 +403,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -364,32 +427,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
+      <sz val="13"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -400,8 +441,9 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -430,187 +472,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -639,6 +681,36 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="double">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -657,38 +729,17 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="medium">
-        <color theme="4"/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -714,25 +765,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </left>
       <right style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </right>
       <top style="thin">
-        <color rgb="FF7F7F7F"/>
+        <color rgb="FF3F3F3F"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -744,10 +786,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -756,137 +798,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="16" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="15" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="15" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="27" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="22" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -902,9 +944,6 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
     <xf numFmtId="176" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -923,8 +962,20 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="10" fontId="3" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -1265,225 +1316,225 @@
   <sheetPr/>
   <dimension ref="B2:E15"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="4"/>
   <cols>
     <col min="1" max="1" width="9.375"/>
     <col min="2" max="4" width="13.625" customWidth="1"/>
-    <col min="5" max="5" width="13.625" style="14" customWidth="1"/>
+    <col min="5" max="5" width="13.625" style="17" customWidth="1"/>
     <col min="7" max="7" width="12.625"/>
     <col min="8" max="8" width="65.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:5">
-      <c r="B2" s="15" t="s">
+      <c r="B2" s="18" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="15" t="s">
+      <c r="C2" s="18" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="15" t="s">
+      <c r="D2" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="E2" s="16" t="s">
+      <c r="E2" s="19" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:5">
-      <c r="B3" s="17">
+      <c r="B3" s="20">
         <v>202001</v>
       </c>
-      <c r="C3" s="17">
+      <c r="C3" s="20">
         <v>6</v>
       </c>
-      <c r="D3" s="17">
+      <c r="D3" s="20">
         <v>0</v>
       </c>
-      <c r="E3" s="18">
+      <c r="E3" s="21">
         <f t="shared" ref="E3:E10" si="0">D3/C3</f>
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="2:5">
-      <c r="B4" s="17">
+      <c r="B4" s="20">
         <v>202002</v>
       </c>
-      <c r="C4" s="17">
+      <c r="C4" s="20">
         <v>6</v>
       </c>
-      <c r="D4" s="17">
+      <c r="D4" s="20">
         <v>1</v>
       </c>
-      <c r="E4" s="18">
+      <c r="E4" s="21">
         <f t="shared" si="0"/>
         <v>0.166666666666667</v>
       </c>
     </row>
     <row r="5" spans="2:5">
-      <c r="B5" s="17">
+      <c r="B5" s="20">
         <v>202003</v>
       </c>
-      <c r="C5" s="17">
+      <c r="C5" s="20">
         <v>16</v>
       </c>
-      <c r="D5" s="17">
+      <c r="D5" s="20">
         <v>2</v>
       </c>
-      <c r="E5" s="18">
+      <c r="E5" s="21">
         <f t="shared" si="0"/>
         <v>0.125</v>
       </c>
     </row>
     <row r="6" spans="2:5">
-      <c r="B6" s="17">
+      <c r="B6" s="20">
         <v>202004</v>
       </c>
-      <c r="C6" s="17">
+      <c r="C6" s="20">
         <v>17</v>
       </c>
-      <c r="D6" s="17">
+      <c r="D6" s="20">
         <v>1</v>
       </c>
-      <c r="E6" s="18">
+      <c r="E6" s="21">
         <f t="shared" si="0"/>
         <v>0.0588235294117647</v>
       </c>
     </row>
     <row r="7" spans="2:5">
-      <c r="B7" s="17">
+      <c r="B7" s="20">
         <v>202005</v>
       </c>
-      <c r="C7" s="17">
+      <c r="C7" s="20">
         <v>3</v>
       </c>
-      <c r="D7" s="17">
+      <c r="D7" s="20">
         <v>0</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="21">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="2:5">
-      <c r="B8" s="17">
+      <c r="B8" s="20">
         <v>202006</v>
       </c>
-      <c r="C8" s="17">
+      <c r="C8" s="20">
         <v>23</v>
       </c>
-      <c r="D8" s="17">
+      <c r="D8" s="20">
         <v>1</v>
       </c>
-      <c r="E8" s="18">
+      <c r="E8" s="21">
         <f t="shared" si="0"/>
         <v>0.0434782608695652</v>
       </c>
     </row>
     <row r="9" spans="2:5">
-      <c r="B9" s="17">
+      <c r="B9" s="20">
         <v>202007</v>
       </c>
-      <c r="C9" s="17">
+      <c r="C9" s="20">
         <v>31</v>
       </c>
-      <c r="D9" s="17">
+      <c r="D9" s="20">
         <v>2</v>
       </c>
-      <c r="E9" s="18">
+      <c r="E9" s="21">
         <f t="shared" si="0"/>
         <v>0.0645161290322581</v>
       </c>
     </row>
     <row r="10" spans="2:5">
-      <c r="B10" s="17">
+      <c r="B10" s="20">
         <v>202008</v>
       </c>
-      <c r="C10" s="17">
+      <c r="C10" s="20">
         <v>13</v>
       </c>
-      <c r="D10" s="17">
+      <c r="D10" s="20">
         <v>0</v>
       </c>
-      <c r="E10" s="18">
+      <c r="E10" s="21">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="2:5">
-      <c r="B11" s="17">
+      <c r="B11" s="20">
         <v>202009</v>
       </c>
-      <c r="C11" s="17">
+      <c r="C11" s="20">
         <v>8</v>
       </c>
-      <c r="D11" s="17">
+      <c r="D11" s="20">
         <v>1</v>
       </c>
-      <c r="E11" s="18">
+      <c r="E11" s="21">
         <f>D11/C11</f>
         <v>0.125</v>
       </c>
     </row>
     <row r="12" spans="2:5">
-      <c r="B12" s="17">
+      <c r="B12" s="20">
         <v>202010</v>
       </c>
-      <c r="C12" s="17">
+      <c r="C12" s="20">
         <v>15</v>
       </c>
-      <c r="D12" s="17">
+      <c r="D12" s="20">
         <v>1</v>
       </c>
-      <c r="E12" s="18">
+      <c r="E12" s="21">
         <f>D12/C12</f>
         <v>0.0666666666666667</v>
       </c>
     </row>
     <row r="13" spans="2:5">
-      <c r="B13" s="17">
+      <c r="B13" s="20">
         <v>202011</v>
       </c>
-      <c r="C13" s="17">
+      <c r="C13" s="20">
         <v>14</v>
       </c>
-      <c r="D13" s="17">
+      <c r="D13" s="20">
         <v>1</v>
       </c>
-      <c r="E13" s="18">
+      <c r="E13" s="21">
         <f>D13/C13</f>
         <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="14" spans="2:5">
-      <c r="B14" s="17">
+      <c r="B14" s="20">
         <v>202012</v>
       </c>
-      <c r="C14" s="17">
+      <c r="C14" s="20">
         <v>28</v>
       </c>
-      <c r="D14" s="17">
+      <c r="D14" s="20">
         <v>2</v>
       </c>
-      <c r="E14" s="18">
+      <c r="E14" s="21">
         <f>D14/C14</f>
         <v>0.0714285714285714</v>
       </c>
     </row>
     <row r="15" spans="2:5">
-      <c r="B15" s="17" t="s">
+      <c r="B15" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="17">
+      <c r="C15" s="20">
         <f>SUM(C3:C14)</f>
         <v>180</v>
       </c>
-      <c r="D15" s="17">
+      <c r="D15" s="20">
         <f>SUM(D3:D14)</f>
         <v>12</v>
       </c>
-      <c r="E15" s="18">
+      <c r="E15" s="21">
         <f>D15/C15</f>
         <v>0.0666666666666667</v>
       </c>
@@ -1497,10 +1548,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="B2:F15"/>
+  <dimension ref="B2:F30"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="5"/>
@@ -1510,21 +1561,21 @@
     <col min="3" max="3" width="11.375" style="1" customWidth="1"/>
     <col min="4" max="4" width="10.75" style="1" customWidth="1"/>
     <col min="5" max="5" width="9" style="1" customWidth="1"/>
-    <col min="6" max="6" width="10.25" style="1" customWidth="1"/>
+    <col min="6" max="6" width="10.25" style="7" customWidth="1"/>
     <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:6">
-      <c r="B2" s="11" t="s">
+      <c r="B2" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C2" s="11" t="s">
+      <c r="C2" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="D2" s="11" t="s">
+      <c r="D2" s="10" t="s">
         <v>7</v>
       </c>
-      <c r="E2" s="11" t="s">
+      <c r="E2" s="10" t="s">
         <v>8</v>
       </c>
       <c r="F2" s="11" t="s">
@@ -1533,227 +1584,501 @@
     </row>
     <row r="3" spans="2:6">
       <c r="B3" s="12">
-        <v>20200211</v>
+        <v>20191121</v>
       </c>
       <c r="C3" s="12" t="s">
         <v>10</v>
       </c>
       <c r="D3" s="12">
-        <v>131.01</v>
+        <v>110</v>
       </c>
       <c r="E3" s="12">
-        <f t="shared" ref="E3:E12" si="0">(D3-100)*10</f>
-        <v>310.1</v>
+        <v>98.87</v>
       </c>
       <c r="F3" s="13">
-        <f t="shared" ref="F3:F12" si="1">E3/1000</f>
-        <v>0.3101</v>
+        <f>E3/1000</f>
+        <v>0.09887</v>
       </c>
     </row>
     <row r="4" spans="2:6">
       <c r="B4" s="12">
-        <v>20200302</v>
+        <v>20191213</v>
       </c>
       <c r="C4" s="12" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="12">
-        <v>109.88</v>
+        <v>123</v>
       </c>
       <c r="E4" s="12">
-        <f t="shared" si="0"/>
-        <v>98.8</v>
+        <v>229</v>
       </c>
       <c r="F4" s="13">
-        <f t="shared" si="1"/>
-        <v>0.0988</v>
+        <f t="shared" ref="F4:F11" si="0">E4/1000</f>
+        <v>0.229</v>
       </c>
     </row>
     <row r="5" spans="2:6">
       <c r="B5" s="12">
-        <v>20200312</v>
+        <v>20191217</v>
       </c>
       <c r="C5" s="12" t="s">
         <v>12</v>
       </c>
       <c r="D5" s="12">
-        <v>114.7</v>
+        <v>132.91</v>
       </c>
       <c r="E5" s="12">
+        <v>327.81</v>
+      </c>
+      <c r="F5" s="13">
         <f t="shared" si="0"/>
-        <v>147</v>
-      </c>
-      <c r="F5" s="13">
-        <f t="shared" si="1"/>
-        <v>0.147</v>
+        <v>0.32781</v>
       </c>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="12">
-        <v>20200410</v>
+        <v>20191219</v>
       </c>
       <c r="C6" s="12" t="s">
         <v>13</v>
       </c>
       <c r="D6" s="12">
-        <v>110.8</v>
+        <v>120.21</v>
       </c>
       <c r="E6" s="12">
+        <v>201.1</v>
+      </c>
+      <c r="F6" s="13">
         <f t="shared" si="0"/>
-        <v>108</v>
-      </c>
-      <c r="F6" s="13">
-        <f t="shared" si="1"/>
-        <v>0.108</v>
+        <v>0.2011</v>
       </c>
     </row>
     <row r="7" spans="2:6">
       <c r="B7" s="12">
-        <v>20200617</v>
+        <v>20191220</v>
       </c>
       <c r="C7" s="12" t="s">
         <v>14</v>
       </c>
       <c r="D7" s="12">
-        <v>130.26</v>
+        <v>112.65</v>
       </c>
       <c r="E7" s="12">
+        <v>125.5</v>
+      </c>
+      <c r="F7" s="13">
         <f t="shared" si="0"/>
-        <v>302.6</v>
-      </c>
-      <c r="F7" s="13">
-        <f t="shared" si="1"/>
-        <v>0.3026</v>
+        <v>0.1255</v>
       </c>
     </row>
     <row r="8" spans="2:6">
       <c r="B8" s="12">
-        <v>20200723</v>
+        <v>20191220</v>
       </c>
       <c r="C8" s="12" t="s">
         <v>15</v>
       </c>
       <c r="D8" s="12">
-        <v>110.31</v>
+        <v>129.22</v>
       </c>
       <c r="E8" s="12">
+        <v>291.2</v>
+      </c>
+      <c r="F8" s="13">
         <f t="shared" si="0"/>
-        <v>103.1</v>
-      </c>
-      <c r="F8" s="13">
-        <f t="shared" si="1"/>
-        <v>0.1031</v>
+        <v>0.2912</v>
       </c>
     </row>
     <row r="9" spans="2:6">
       <c r="B9" s="12">
-        <v>20200724</v>
+        <v>20191223</v>
       </c>
       <c r="C9" s="12" t="s">
         <v>16</v>
       </c>
       <c r="D9" s="12">
-        <v>116.02</v>
+        <v>114.91</v>
       </c>
       <c r="E9" s="12">
+        <v>148.1</v>
+      </c>
+      <c r="F9" s="13">
         <f t="shared" si="0"/>
-        <v>160.2</v>
-      </c>
-      <c r="F9" s="13">
-        <f t="shared" si="1"/>
-        <v>0.1602</v>
+        <v>0.1481</v>
       </c>
     </row>
     <row r="10" spans="2:6">
       <c r="B10" s="12">
-        <v>20200915</v>
+        <v>20191226</v>
       </c>
       <c r="C10" s="12" t="s">
         <v>17</v>
       </c>
       <c r="D10" s="12">
-        <v>101.5</v>
+        <v>125.05</v>
       </c>
       <c r="E10" s="12">
+        <v>249.27</v>
+      </c>
+      <c r="F10" s="13">
         <f t="shared" si="0"/>
-        <v>15</v>
-      </c>
-      <c r="F10" s="13">
-        <f t="shared" si="1"/>
-        <v>0.015</v>
+        <v>0.24927</v>
       </c>
     </row>
     <row r="11" spans="2:6">
       <c r="B11" s="12">
-        <v>20201015</v>
+        <v>20191230</v>
       </c>
       <c r="C11" s="12" t="s">
         <v>18</v>
       </c>
       <c r="D11" s="12">
-        <v>112</v>
+        <v>107.57</v>
       </c>
       <c r="E11" s="12">
+        <v>74.61</v>
+      </c>
+      <c r="F11" s="13">
         <f t="shared" si="0"/>
-        <v>120</v>
-      </c>
-      <c r="F11" s="13">
-        <f t="shared" si="1"/>
-        <v>0.12</v>
+        <v>0.07461</v>
       </c>
     </row>
     <row r="12" spans="2:6">
       <c r="B12" s="12">
-        <v>20201127</v>
+        <v>20200211</v>
       </c>
       <c r="C12" s="12" t="s">
         <v>19</v>
       </c>
       <c r="D12" s="12">
-        <v>105</v>
+        <v>131.01</v>
       </c>
       <c r="E12" s="12">
-        <f t="shared" si="0"/>
-        <v>50</v>
+        <f t="shared" ref="E12:E21" si="1">(D12-100)*10</f>
+        <v>310.1</v>
       </c>
       <c r="F12" s="13">
-        <f t="shared" si="1"/>
-        <v>0.05</v>
+        <f>E12/1000</f>
+        <v>0.3101</v>
       </c>
     </row>
     <row r="13" spans="2:6">
       <c r="B13" s="12">
-        <v>20201210</v>
+        <v>20200302</v>
       </c>
       <c r="C13" s="12" t="s">
         <v>20</v>
       </c>
-      <c r="D13" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
+      <c r="D13" s="12">
+        <v>109.88</v>
+      </c>
+      <c r="E13" s="12">
+        <f t="shared" si="1"/>
+        <v>98.8</v>
+      </c>
+      <c r="F13" s="13">
+        <f t="shared" ref="F12:F21" si="2">E13/1000</f>
+        <v>0.0988</v>
+      </c>
     </row>
     <row r="14" spans="2:6">
       <c r="B14" s="12">
+        <v>20200312</v>
+      </c>
+      <c r="C14" s="12" t="s">
+        <v>21</v>
+      </c>
+      <c r="D14" s="12">
+        <v>114.7</v>
+      </c>
+      <c r="E14" s="12">
+        <f t="shared" si="1"/>
+        <v>147</v>
+      </c>
+      <c r="F14" s="13">
+        <f t="shared" si="2"/>
+        <v>0.147</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6">
+      <c r="B15" s="12">
+        <v>20200410</v>
+      </c>
+      <c r="C15" s="12" t="s">
+        <v>22</v>
+      </c>
+      <c r="D15" s="12">
+        <v>110.8</v>
+      </c>
+      <c r="E15" s="12">
+        <f t="shared" si="1"/>
+        <v>108</v>
+      </c>
+      <c r="F15" s="13">
+        <f t="shared" si="2"/>
+        <v>0.108</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6">
+      <c r="B16" s="12">
+        <v>20200617</v>
+      </c>
+      <c r="C16" s="12" t="s">
+        <v>23</v>
+      </c>
+      <c r="D16" s="12">
+        <v>130.26</v>
+      </c>
+      <c r="E16" s="12">
+        <f t="shared" si="1"/>
+        <v>302.6</v>
+      </c>
+      <c r="F16" s="13">
+        <f t="shared" si="2"/>
+        <v>0.3026</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6">
+      <c r="B17" s="12">
+        <v>20200723</v>
+      </c>
+      <c r="C17" s="12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D17" s="12">
+        <v>110.31</v>
+      </c>
+      <c r="E17" s="12">
+        <f t="shared" si="1"/>
+        <v>103.1</v>
+      </c>
+      <c r="F17" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1031</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6">
+      <c r="B18" s="12">
+        <v>20200724</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" s="12">
+        <v>116.02</v>
+      </c>
+      <c r="E18" s="12">
+        <f t="shared" si="1"/>
+        <v>160.2</v>
+      </c>
+      <c r="F18" s="13">
+        <f t="shared" si="2"/>
+        <v>0.1602</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6">
+      <c r="B19" s="12">
+        <v>20200915</v>
+      </c>
+      <c r="C19" s="12" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="12">
+        <v>101.5</v>
+      </c>
+      <c r="E19" s="12">
+        <f t="shared" si="1"/>
+        <v>15</v>
+      </c>
+      <c r="F19" s="13">
+        <f t="shared" si="2"/>
+        <v>0.015</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6">
+      <c r="B20" s="12">
+        <v>20201015</v>
+      </c>
+      <c r="C20" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" s="12">
+        <v>112</v>
+      </c>
+      <c r="E20" s="12">
+        <f t="shared" si="1"/>
+        <v>120</v>
+      </c>
+      <c r="F20" s="13">
+        <f t="shared" si="2"/>
+        <v>0.12</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6">
+      <c r="B21" s="12">
+        <v>20201127</v>
+      </c>
+      <c r="C21" s="12" t="s">
+        <v>28</v>
+      </c>
+      <c r="D21" s="12">
+        <v>105</v>
+      </c>
+      <c r="E21" s="12">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="F21" s="13">
+        <f t="shared" si="2"/>
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6">
+      <c r="B22" s="12">
+        <v>20201210</v>
+      </c>
+      <c r="C22" s="12" t="s">
+        <v>29</v>
+      </c>
+      <c r="D22" s="12">
+        <v>93.53</v>
+      </c>
+      <c r="E22" s="12">
+        <v>-65.64</v>
+      </c>
+      <c r="F22" s="13">
+        <f t="shared" ref="F22:F28" si="3">E22/1000</f>
+        <v>-0.06564</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6">
+      <c r="B23" s="12">
         <v>20201214</v>
       </c>
-      <c r="C14" s="12" t="s">
-        <v>22</v>
-      </c>
-      <c r="D14" s="12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="2:5">
-      <c r="B15" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E15" s="1">
-        <v>1414.8</v>
-      </c>
+      <c r="C23" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="D23" s="12">
+        <v>101.06</v>
+      </c>
+      <c r="E23" s="12">
+        <v>9.5</v>
+      </c>
+      <c r="F23" s="13">
+        <f t="shared" si="3"/>
+        <v>0.0095</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6">
+      <c r="B24" s="14">
+        <v>20210126</v>
+      </c>
+      <c r="C24" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="D24" s="14">
+        <v>100.03</v>
+      </c>
+      <c r="E24" s="14">
+        <v>-0.68</v>
+      </c>
+      <c r="F24" s="13">
+        <f t="shared" si="3"/>
+        <v>-0.00068</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6">
+      <c r="B25" s="14">
+        <v>20210407</v>
+      </c>
+      <c r="C25" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D25" s="15">
+        <v>131.61</v>
+      </c>
+      <c r="E25" s="14">
+        <v>314.78</v>
+      </c>
+      <c r="F25" s="13">
+        <f t="shared" si="3"/>
+        <v>0.31478</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6">
+      <c r="B26" s="14">
+        <v>20210408</v>
+      </c>
+      <c r="C26" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="D26" s="14">
+        <v>119.35</v>
+      </c>
+      <c r="E26" s="14">
+        <v>192.5</v>
+      </c>
+      <c r="F26" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1925</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6">
+      <c r="B27" s="14">
+        <v>20210607</v>
+      </c>
+      <c r="C27" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="D27" s="14">
+        <v>119.22</v>
+      </c>
+      <c r="E27" s="14">
+        <v>192.2</v>
+      </c>
+      <c r="F27" s="13">
+        <f t="shared" si="3"/>
+        <v>0.1922</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6">
+      <c r="B28" s="14">
+        <v>20210610</v>
+      </c>
+      <c r="C28" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D28" s="14">
+        <v>144.26</v>
+      </c>
+      <c r="E28" s="14">
+        <v>441.19</v>
+      </c>
+      <c r="F28" s="13">
+        <f t="shared" si="3"/>
+        <v>0.44119</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6">
+      <c r="B29" s="14">
+        <v>20210728</v>
+      </c>
+      <c r="C29" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D29" s="14"/>
+      <c r="E29" s="14"/>
+      <c r="F29" s="16"/>
+    </row>
+    <row r="30" spans="2:6">
+      <c r="B30" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C30" s="14"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="14"/>
+      <c r="F30" s="16"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -1767,7 +2092,7 @@
   <dimension ref="B2:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C3" sqref="C3:I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1789,51 +2114,51 @@
   <sheetData>
     <row r="2" spans="2:17">
       <c r="B2" s="2" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G2" s="2" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H2" s="2" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="K2" s="9" t="s">
-        <v>33</v>
+        <v>46</v>
+      </c>
+      <c r="K2" s="8" t="s">
+        <v>47</v>
       </c>
       <c r="L2" s="2" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="M2" s="2" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="N2" s="2" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="O2" s="2" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="P2" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="Q2" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q2" s="8" t="s">
         <v>9</v>
       </c>
     </row>
@@ -1841,16 +2166,16 @@
       <c r="B3" s="4">
         <v>128093</v>
       </c>
-      <c r="C3" s="5" t="s">
-        <v>39</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="E3" s="5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F3" s="6">
+      <c r="C3" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="F3" s="5">
         <v>20200206</v>
       </c>
       <c r="G3" s="4">
@@ -1865,7 +2190,7 @@
       <c r="J3" s="4">
         <v>1199.95</v>
       </c>
-      <c r="K3" s="10">
+      <c r="K3" s="9">
         <v>0.226403524495052</v>
       </c>
       <c r="L3" s="4">
@@ -1883,7 +2208,7 @@
       <c r="P3" s="4">
         <v>76.2299999999996</v>
       </c>
-      <c r="Q3" s="10">
+      <c r="Q3" s="9">
         <v>0.0143828831803473</v>
       </c>
     </row>
@@ -1891,16 +2216,16 @@
       <c r="B4" s="4">
         <v>128056</v>
       </c>
-      <c r="C4" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D4" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E4" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F4" s="6">
+      <c r="C4" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F4" s="5">
         <v>20200206</v>
       </c>
       <c r="G4" s="4">
@@ -1915,7 +2240,7 @@
       <c r="J4" s="4">
         <v>1485</v>
       </c>
-      <c r="K4" s="10">
+      <c r="K4" s="9">
         <v>0.296111665004985</v>
       </c>
       <c r="L4" s="4">
@@ -1933,7 +2258,7 @@
       <c r="P4" s="4">
         <v>2254.85</v>
       </c>
-      <c r="Q4" s="10">
+      <c r="Q4" s="9">
         <v>0.449621136590229</v>
       </c>
     </row>
@@ -1941,16 +2266,16 @@
       <c r="B5" s="4">
         <v>128050</v>
       </c>
-      <c r="C5" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E5" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F5" s="6">
+      <c r="C5" s="4" t="s">
+        <v>58</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F5" s="5">
         <v>20200414</v>
       </c>
       <c r="G5" s="4">
@@ -1965,7 +2290,7 @@
       <c r="J5" s="4">
         <v>945</v>
       </c>
-      <c r="K5" s="10">
+      <c r="K5" s="9">
         <v>0.17011701170117</v>
       </c>
       <c r="L5" s="4">
@@ -1983,7 +2308,7 @@
       <c r="P5" s="4">
         <v>945</v>
       </c>
-      <c r="Q5" s="10">
+      <c r="Q5" s="9">
         <v>0.17011701170117</v>
       </c>
     </row>
@@ -1991,16 +2316,16 @@
       <c r="B6" s="4">
         <v>113545</v>
       </c>
-      <c r="C6" s="5" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="5" t="s">
-        <v>46</v>
-      </c>
-      <c r="E6" s="5" t="s">
-        <v>47</v>
-      </c>
-      <c r="F6" s="6">
+      <c r="C6" s="4" t="s">
+        <v>59</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>60</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>61</v>
+      </c>
+      <c r="F6" s="5">
         <v>20200608</v>
       </c>
       <c r="G6" s="4">
@@ -2015,7 +2340,7 @@
       <c r="J6" s="4">
         <v>1045</v>
       </c>
-      <c r="K6" s="10">
+      <c r="K6" s="9">
         <v>0.191567369385885</v>
       </c>
       <c r="L6" s="4">
@@ -2033,7 +2358,7 @@
       <c r="P6" s="4">
         <v>1046</v>
       </c>
-      <c r="Q6" s="10">
+      <c r="Q6" s="9">
         <v>0.191750687442713</v>
       </c>
     </row>
@@ -2041,16 +2366,16 @@
       <c r="B7" s="4">
         <v>113537</v>
       </c>
-      <c r="C7" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E7" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F7" s="6">
+      <c r="C7" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F7" s="5">
         <v>20200616</v>
       </c>
       <c r="G7" s="4">
@@ -2065,7 +2390,7 @@
       <c r="J7" s="4">
         <v>864</v>
       </c>
-      <c r="K7" s="10">
+      <c r="K7" s="9">
         <v>0.153300212916962</v>
       </c>
       <c r="L7" s="4">
@@ -2083,7 +2408,7 @@
       <c r="P7" s="4">
         <v>864</v>
       </c>
-      <c r="Q7" s="10">
+      <c r="Q7" s="9">
         <v>0.153300212916962</v>
       </c>
     </row>
@@ -2091,16 +2416,16 @@
       <c r="B8" s="4">
         <v>128071</v>
       </c>
-      <c r="C8" s="5" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="5" t="s">
-        <v>50</v>
-      </c>
-      <c r="E8" s="5" t="s">
-        <v>51</v>
-      </c>
-      <c r="F8" s="6">
+      <c r="C8" s="4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="F8" s="5">
         <v>20200616</v>
       </c>
       <c r="G8" s="4">
@@ -2115,7 +2440,7 @@
       <c r="J8" s="4">
         <v>865</v>
       </c>
-      <c r="K8" s="10">
+      <c r="K8" s="9">
         <v>0.153504880212955</v>
       </c>
       <c r="L8" s="4">
@@ -2133,7 +2458,7 @@
       <c r="P8" s="4">
         <v>987.499999999999</v>
       </c>
-      <c r="Q8" s="10">
+      <c r="Q8" s="9">
         <v>0.175244010647737</v>
       </c>
     </row>
@@ -2141,16 +2466,16 @@
       <c r="B9" s="4">
         <v>128073</v>
       </c>
-      <c r="C9" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D9" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E9" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F9" s="6">
+      <c r="C9" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F9" s="5">
         <v>20200617</v>
       </c>
       <c r="G9" s="4">
@@ -2165,7 +2490,7 @@
       <c r="J9" s="4">
         <v>1245</v>
       </c>
-      <c r="K9" s="10">
+      <c r="K9" s="9">
         <v>0.236917221693625</v>
       </c>
       <c r="L9" s="4">
@@ -2183,7 +2508,7 @@
       <c r="P9" s="4">
         <v>1245</v>
       </c>
-      <c r="Q9" s="10">
+      <c r="Q9" s="9">
         <v>0.236917221693625</v>
       </c>
     </row>
@@ -2191,16 +2516,16 @@
       <c r="B10" s="4">
         <v>128022</v>
       </c>
-      <c r="C10" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D10" s="5" t="s">
-        <v>56</v>
-      </c>
-      <c r="E10" s="5" t="s">
-        <v>57</v>
-      </c>
-      <c r="F10" s="6">
+      <c r="C10" s="4" t="s">
+        <v>69</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>70</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="F10" s="5">
         <v>20200629</v>
       </c>
       <c r="G10" s="4">
@@ -2215,7 +2540,7 @@
       <c r="J10" s="4">
         <v>1205</v>
       </c>
-      <c r="K10" s="10">
+      <c r="K10" s="9">
         <v>0.227573182247403</v>
       </c>
       <c r="L10" s="4">
@@ -2233,7 +2558,7 @@
       <c r="P10" s="4">
         <v>1205.05</v>
       </c>
-      <c r="Q10" s="10">
+      <c r="Q10" s="9">
         <v>0.227582625118036</v>
       </c>
     </row>
@@ -2241,16 +2566,16 @@
       <c r="B11" s="4">
         <v>110058</v>
       </c>
-      <c r="C11" s="5" t="s">
-        <v>58</v>
-      </c>
-      <c r="D11" s="5" t="s">
-        <v>59</v>
-      </c>
-      <c r="E11" s="5" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="6">
+      <c r="C11" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>74</v>
+      </c>
+      <c r="F11" s="5">
         <v>20200713</v>
       </c>
       <c r="G11" s="4">
@@ -2265,7 +2590,7 @@
       <c r="J11" s="4">
         <v>1096</v>
       </c>
-      <c r="K11" s="10">
+      <c r="K11" s="9">
         <v>0.202812731310141</v>
       </c>
       <c r="L11" s="4">
@@ -2283,7 +2608,7 @@
       <c r="P11" s="4">
         <v>1096</v>
       </c>
-      <c r="Q11" s="10">
+      <c r="Q11" s="9">
         <v>0.202812731310141</v>
       </c>
     </row>
@@ -2291,16 +2616,16 @@
       <c r="B12" s="4">
         <v>128056</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D12" s="5" t="s">
-        <v>42</v>
-      </c>
-      <c r="E12" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F12" s="6">
+      <c r="C12" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D12" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F12" s="5">
         <v>20200803</v>
       </c>
       <c r="G12" s="4">
@@ -2315,7 +2640,7 @@
       <c r="J12" s="4">
         <v>1116.7</v>
       </c>
-      <c r="K12" s="10">
+      <c r="K12" s="9">
         <v>0.207437816952427</v>
       </c>
       <c r="L12" s="4">
@@ -2333,7 +2658,7 @@
       <c r="P12" s="4">
         <v>1116.7</v>
       </c>
-      <c r="Q12" s="10">
+      <c r="Q12" s="9">
         <v>0.202812731310141</v>
       </c>
     </row>
@@ -2341,16 +2666,16 @@
       <c r="B13" s="4">
         <v>128073</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>52</v>
-      </c>
-      <c r="D13" s="5" t="s">
-        <v>53</v>
-      </c>
-      <c r="E13" s="5" t="s">
-        <v>54</v>
-      </c>
-      <c r="F13" s="6">
+      <c r="C13" s="4" t="s">
+        <v>66</v>
+      </c>
+      <c r="D13" s="4" t="s">
+        <v>67</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="5">
         <v>20200928</v>
       </c>
       <c r="G13" s="4">
@@ -2365,7 +2690,7 @@
       <c r="J13" s="4">
         <v>950.15</v>
       </c>
-      <c r="K13" s="10">
+      <c r="K13" s="9">
         <v>0.171202825301585</v>
       </c>
       <c r="L13" s="4">
@@ -2383,7 +2708,7 @@
       <c r="P13" s="4">
         <v>1200.15</v>
       </c>
-      <c r="Q13" s="10">
+      <c r="Q13" s="9">
         <v>0.216249087813184</v>
       </c>
     </row>
@@ -2391,16 +2716,16 @@
       <c r="B14" s="4">
         <v>128082</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>61</v>
-      </c>
-      <c r="D14" s="5" t="s">
-        <v>62</v>
-      </c>
-      <c r="E14" s="5" t="s">
-        <v>63</v>
-      </c>
-      <c r="F14" s="6">
+      <c r="C14" s="4" t="s">
+        <v>75</v>
+      </c>
+      <c r="D14" s="4" t="s">
+        <v>76</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="5">
         <v>20201026</v>
       </c>
       <c r="G14" s="4">
@@ -2415,7 +2740,7 @@
       <c r="J14" s="4">
         <v>837.05</v>
       </c>
-      <c r="K14" s="10">
+      <c r="K14" s="9">
         <v>0.147811652937073</v>
       </c>
       <c r="L14" s="4">
@@ -2433,7 +2758,7 @@
       <c r="P14" s="4">
         <v>887.05</v>
       </c>
-      <c r="Q14" s="10">
+      <c r="Q14" s="9">
         <v>0.156640973344282</v>
       </c>
     </row>
@@ -2441,16 +2766,16 @@
       <c r="B15" s="4">
         <v>128094</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>64</v>
-      </c>
-      <c r="D15" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="E15" s="5" t="s">
-        <v>43</v>
-      </c>
-      <c r="F15" s="6">
+      <c r="C15" s="4" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="F15" s="5">
         <v>20201026</v>
       </c>
       <c r="G15" s="4">
@@ -2465,7 +2790,7 @@
       <c r="J15" s="4">
         <v>759.5</v>
       </c>
-      <c r="K15" s="10">
+      <c r="K15" s="9">
         <v>0.138835572616763</v>
       </c>
       <c r="L15" s="4">
@@ -2483,41 +2808,41 @@
       <c r="P15" s="4">
         <v>1050.35</v>
       </c>
-      <c r="Q15" s="10">
+      <c r="Q15" s="9">
         <v>0.192002559181062</v>
       </c>
     </row>
     <row r="18" spans="5:7">
       <c r="E18" s="1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F18" s="7">
+        <v>80</v>
+      </c>
+      <c r="F18" s="6">
         <f>13973+1414.8</f>
         <v>15387.8</v>
       </c>
-      <c r="G18" s="8"/>
+      <c r="G18" s="7"/>
     </row>
     <row r="19" spans="5:8">
       <c r="E19" s="1" t="s">
-        <v>67</v>
-      </c>
-      <c r="F19" s="7">
+        <v>81</v>
+      </c>
+      <c r="F19" s="6">
         <v>142319</v>
       </c>
-      <c r="H19" s="8"/>
+      <c r="H19" s="7"/>
     </row>
     <row r="20" spans="5:6">
       <c r="E20" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="8">
+      <c r="F20" s="7">
         <f>F18/F19</f>
         <v>0.10812189517914</v>
       </c>
     </row>
     <row r="21" spans="5:6">
       <c r="E21" s="1" t="s">
-        <v>68</v>
+        <v>82</v>
       </c>
       <c r="F21" s="1">
         <f>F18-1414</f>
@@ -2526,9 +2851,9 @@
     </row>
     <row r="22" spans="5:6">
       <c r="E22" s="1" t="s">
-        <v>69</v>
-      </c>
-      <c r="F22" s="8">
+        <v>83</v>
+      </c>
+      <c r="F22" s="7">
         <f>F21/F19</f>
         <v>0.0981864684265629</v>
       </c>
